--- a/data/second_stage/df_to_rev_coder5.xlsx
+++ b/data/second_stage/df_to_rev_coder5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univmurcia-my.sharepoint.com/personal/ruben_lopez15_um_es/Documents/FPU2018/Tesis/Drafts/Paper 2/Project/data/second_stage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univmurcia-my.sharepoint.com/personal/rlopez_um_es/Documents/FPU2018/meta-analyses_reproducibility/data/second_stage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="11_999968B45A93AC30D116EB20EA27DD6CD278EB31" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAB60ACE-7E5C-46DD-B404-A74DB89EDF3C}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{5415F163-57C9-4D2C-94D5-E0A2DC817D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A00AB37-AA9E-46A5-A262-C97E25A4AFE2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="154">
   <si>
     <t>order</t>
   </si>
@@ -471,6 +471,18 @@
   </si>
   <si>
     <t>request_information</t>
+  </si>
+  <si>
+    <t>ma_x</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>No clear reason was found. Labelled as numerical error due to discrepancy in lower confidence limit. This difference (0.026) was considered not relevant.</t>
+  </si>
+  <si>
+    <t>Inverted signs of results.  Can be explained by authors choosing to report absolute values in the main text.</t>
   </si>
 </sst>
 </file>
@@ -816,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY18"/>
+  <dimension ref="A1:BA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="AK5" workbookViewId="0">
+      <selection activeCell="BA6" sqref="BA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +839,7 @@
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -925,64 +937,70 @@
         <v>31</v>
       </c>
       <c r="AG1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>136</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>137</v>
       </c>
+      <c r="BA1" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>14</v>
       </c>
@@ -1060,64 +1078,67 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AG2">
+        <v>44</v>
+      </c>
+      <c r="AH2">
         <v>0.497</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>10</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>0.441</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>0.20799999999999999</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>0.67300000000000004</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>0.46500000000000002</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>3.7160000000000002</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>34.76</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>74.108000000000004</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>0</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>-7.5609756097560998</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>6.4386317907444601</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>-15.108000000000001</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>63</v>
       </c>
       <c r="AU2" t="s">
         <v>63</v>
       </c>
       <c r="AV2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW2" t="s">
         <v>64</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>65</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>138</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>14</v>
       </c>
@@ -1195,64 +1216,67 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AG3">
+        <v>45</v>
+      </c>
+      <c r="AH3">
         <v>0.49</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>10</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.46200000000000002</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.14599999999999999</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.77700000000000002</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.63100000000000001</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>2.8679999999999999</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>35.036000000000001</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>74.311999999999998</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>0</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>-0.43478260869565299</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>-28.775510204081598</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>-0.311999999999998</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>63</v>
       </c>
       <c r="AU3" t="s">
         <v>63</v>
       </c>
       <c r="AV3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW3" t="s">
         <v>64</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>65</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>139</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:51" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>35</v>
       </c>
@@ -1327,61 +1351,64 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AG4">
+        <v>93</v>
+      </c>
+      <c r="AH4">
         <v>0.3</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>33</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>-0.45</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>-0.61299999999999999</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>-0.28699999999999998</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>0.32500000000000001</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>-5.4219999999999997</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>168.95400000000001</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>81.06</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>0</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>180.357142857143</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>-8.3333333333333393</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>63</v>
       </c>
       <c r="AU4" t="s">
         <v>63</v>
       </c>
       <c r="AV4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW4" t="s">
         <v>64</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>65</v>
       </c>
-      <c r="AX4" s="2" t="s">
+      <c r="AY4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>53</v>
       </c>
@@ -1450,61 +1477,67 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AG5">
+        <v>115</v>
+      </c>
+      <c r="AH5">
         <v>0.153</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>64</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-0.95099999999999996</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-1.0269999999999999</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>-0.874</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>0.152</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-24.439</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>578.86199999999997</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>89.117000000000004</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>0</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>200</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>0.65359477124183096</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>63</v>
       </c>
       <c r="AU5" t="s">
         <v>63</v>
       </c>
       <c r="AV5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW5" t="s">
         <v>64</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AX5" t="s">
         <v>65</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>141</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>142</v>
       </c>
+      <c r="BA5" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>53</v>
       </c>
@@ -1573,61 +1606,67 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AG6">
+        <v>116</v>
+      </c>
+      <c r="AH6">
         <v>0.36599999999999999</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>19</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>-1.0589999999999999</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-1.242</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>-0.876</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>0.36599999999999999</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>-11.336</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>196.65299999999999</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>90.846999999999994</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>-1</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>200</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>0</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>63</v>
       </c>
       <c r="AU6" t="s">
         <v>63</v>
       </c>
       <c r="AV6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW6" t="s">
         <v>64</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AX6" t="s">
         <v>65</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY6" t="s">
         <v>143</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AZ6" t="s">
         <v>142</v>
       </c>
+      <c r="BA6" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>55</v>
       </c>
@@ -1708,64 +1747,67 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AG7">
+        <v>118</v>
+      </c>
+      <c r="AH7">
         <v>0.7</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>7</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>-0.63400000000000001</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>-1.002</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>-0.26700000000000002</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>0.73499999999999999</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>-3.383</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>16.876999999999999</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>64.448999999999998</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>0</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>-3.9344262295082002</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>-5</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <v>-4.4489999999999998</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>63</v>
       </c>
       <c r="AU7" t="s">
         <v>63</v>
       </c>
       <c r="AV7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW7" t="s">
         <v>64</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AX7" t="s">
         <v>65</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>144</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AZ7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>61</v>
       </c>
@@ -1843,64 +1885,67 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AG8">
+        <v>134</v>
+      </c>
+      <c r="AH8">
         <v>0.18</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>41</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>-0.107</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>0.17899999999999999</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>-0.38</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>56.645000000000003</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>14.143000000000001</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>0</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>-70</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>0.55555555555555602</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>-8.8130000000000006</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>106</v>
       </c>
       <c r="AU8" t="s">
         <v>106</v>
       </c>
       <c r="AV8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW8" t="s">
         <v>64</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="AX8" t="s">
         <v>65</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AY8" t="s">
         <v>145</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="AZ8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>61</v>
       </c>
@@ -1978,64 +2023,67 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AG9">
+        <v>135</v>
+      </c>
+      <c r="AH9">
         <v>0.44</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>26</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>-0.18099999999999999</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>0.14599999999999999</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>0.32800000000000001</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-0.21</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>47.877000000000002</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>43.731000000000002</v>
       </c>
-      <c r="AP9">
+      <c r="AQ9">
         <v>-10</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>77.5</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <v>25.454545454545499</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <v>8.4990000000000006</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>106</v>
       </c>
       <c r="AU9" t="s">
         <v>106</v>
       </c>
       <c r="AV9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW9" t="s">
         <v>64</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="AX9" t="s">
         <v>65</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AY9" t="s">
         <v>145</v>
       </c>
-      <c r="AY9" t="s">
+      <c r="AZ9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>61</v>
       </c>
@@ -2113,64 +2161,67 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AG10">
+        <v>136</v>
+      </c>
+      <c r="AH10">
         <v>0.41</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>24</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-3.9E-2</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-0.20599999999999999</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>0.128</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>0.33400000000000002</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-0.46200000000000002</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>53.302999999999997</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>59.241</v>
       </c>
-      <c r="AP10">
+      <c r="AQ10">
         <v>-13</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>120.526315789474</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <v>18.5365853658537</v>
       </c>
-      <c r="AS10">
+      <c r="AT10">
         <v>-15.701000000000001</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>106</v>
       </c>
       <c r="AU10" t="s">
         <v>106</v>
       </c>
       <c r="AV10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW10" t="s">
         <v>64</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AX10" t="s">
         <v>65</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AY10" t="s">
         <v>145</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="AZ10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>61</v>
       </c>
@@ -2248,64 +2299,67 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AG11">
+        <v>137</v>
+      </c>
+      <c r="AH11">
         <v>0.43</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>16</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-8.3000000000000004E-2</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-0.30399999999999999</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>0.13800000000000001</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>0.442</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-0.73299999999999998</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>32.591000000000001</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>51.262999999999998</v>
       </c>
-      <c r="AP11">
+      <c r="AQ11">
         <v>-6</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <v>7.7777777777777697</v>
       </c>
-      <c r="AR11">
+      <c r="AS11">
         <v>-2.7906976744186101</v>
       </c>
-      <c r="AS11">
+      <c r="AT11">
         <v>-11.903</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>106</v>
       </c>
       <c r="AU11" t="s">
         <v>106</v>
       </c>
       <c r="AV11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW11" t="s">
         <v>64</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AX11" t="s">
         <v>65</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AY11" t="s">
         <v>145</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="AZ11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>61</v>
       </c>
@@ -2383,64 +2437,67 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AG12">
+        <v>138</v>
+      </c>
+      <c r="AH12">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>12</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>0.02</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-0.23499999999999999</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>0.27400000000000002</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>0.50900000000000001</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>0.152</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>17.384</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <v>28.76</v>
       </c>
-      <c r="AP12">
+      <c r="AQ12">
         <v>5</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <v>85.714285714285694</v>
       </c>
-      <c r="AR12">
+      <c r="AS12">
         <v>-75.517241379310406</v>
       </c>
-      <c r="AS12">
+      <c r="AT12">
         <v>4.2</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>106</v>
       </c>
       <c r="AU12" t="s">
         <v>106</v>
       </c>
       <c r="AV12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW12" t="s">
         <v>64</v>
       </c>
-      <c r="AW12" t="s">
+      <c r="AX12" t="s">
         <v>65</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AY12" t="s">
         <v>145</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="AZ12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>61</v>
       </c>
@@ -2518,64 +2575,67 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AG13">
+        <v>139</v>
+      </c>
+      <c r="AH13">
         <v>0.31</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>11</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>1.2E-2</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>-0.221</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>0.246</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>0.46800000000000003</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>0.10299999999999999</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>19.373999999999999</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>45.798999999999999</v>
       </c>
-      <c r="AP13">
+      <c r="AQ13">
         <v>15</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <v>130</v>
       </c>
-      <c r="AR13">
+      <c r="AS13">
         <v>-50.9677419354839</v>
       </c>
-      <c r="AS13">
+      <c r="AT13">
         <v>-7.6890000000000001</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>106</v>
       </c>
       <c r="AU13" t="s">
         <v>106</v>
       </c>
       <c r="AV13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW13" t="s">
         <v>64</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AX13" t="s">
         <v>65</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AY13" t="s">
         <v>145</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="AZ13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>61</v>
       </c>
@@ -2653,64 +2713,67 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AG14">
+        <v>140</v>
+      </c>
+      <c r="AH14">
         <v>0.51</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>11</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>0.15</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>-2.1000000000000001E-2</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>0.32</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>0.34</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>1.7230000000000001</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>15.97</v>
       </c>
-      <c r="AO14">
+      <c r="AP14">
         <v>13.483000000000001</v>
       </c>
-      <c r="AP14">
+      <c r="AQ14">
         <v>1</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <v>-275</v>
       </c>
-      <c r="AR14">
+      <c r="AS14">
         <v>33.3333333333333</v>
       </c>
-      <c r="AS14">
+      <c r="AT14">
         <v>24.117000000000001</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>106</v>
       </c>
       <c r="AU14" t="s">
         <v>106</v>
       </c>
       <c r="AV14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW14" t="s">
         <v>64</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AX14" t="s">
         <v>65</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AY14" t="s">
         <v>145</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="AZ14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>61</v>
       </c>
@@ -2788,64 +2851,67 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AG15">
+        <v>141</v>
+      </c>
+      <c r="AH15">
         <v>0.34</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>9</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-4.5999999999999999E-2</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-0.247</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>0.155</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>0.40200000000000002</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-0.44800000000000001</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>12.394</v>
       </c>
-      <c r="AO15">
+      <c r="AP15">
         <v>26.042000000000002</v>
       </c>
-      <c r="AP15">
+      <c r="AQ15">
         <v>15</v>
       </c>
-      <c r="AQ15">
+      <c r="AR15">
         <v>-15</v>
       </c>
-      <c r="AR15">
+      <c r="AS15">
         <v>-18.235294117647101</v>
       </c>
-      <c r="AS15">
+      <c r="AT15">
         <v>34.768000000000001</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>106</v>
       </c>
       <c r="AU15" t="s">
         <v>106</v>
       </c>
       <c r="AV15" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW15" t="s">
         <v>64</v>
       </c>
-      <c r="AW15" t="s">
+      <c r="AX15" t="s">
         <v>65</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="AY15" t="s">
         <v>145</v>
       </c>
-      <c r="AY15" t="s">
+      <c r="AZ15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>61</v>
       </c>
@@ -2923,64 +2989,67 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AG16">
+        <v>142</v>
+      </c>
+      <c r="AH16">
         <v>0.5</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>18</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>0.17199999999999999</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>0.317</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>0.29199999999999998</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>2.3050000000000002</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>23.16</v>
       </c>
-      <c r="AO16">
+      <c r="AP16">
         <v>27.521000000000001</v>
       </c>
-      <c r="AP16">
+      <c r="AQ16">
         <v>-7</v>
       </c>
-      <c r="AQ16">
+      <c r="AR16">
         <v>-473.33333333333297</v>
       </c>
-      <c r="AR16">
+      <c r="AS16">
         <v>41.6</v>
       </c>
-      <c r="AS16">
+      <c r="AT16">
         <v>25.728999999999999</v>
       </c>
-      <c r="AT16" t="s">
+      <c r="AU16" t="s">
         <v>106</v>
       </c>
-      <c r="AU16" t="s">
+      <c r="AV16" t="s">
         <v>63</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>64</v>
       </c>
       <c r="AW16" t="s">
         <v>64</v>
       </c>
       <c r="AX16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY16" t="s">
         <v>145</v>
       </c>
-      <c r="AY16" t="s">
+      <c r="AZ16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>66</v>
       </c>
@@ -3058,61 +3127,67 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AG17">
+        <v>148</v>
+      </c>
+      <c r="AH17">
         <v>0.25</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>10</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>0.25600000000000001</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>0.114</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>0.39800000000000002</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>0.28399999999999997</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>3.5419999999999998</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>10.803000000000001</v>
       </c>
-      <c r="AO17">
+      <c r="AP17">
         <v>16.687000000000001</v>
       </c>
-      <c r="AP17">
+      <c r="AQ17">
         <v>0</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <v>1.5384615384615401</v>
       </c>
-      <c r="AR17">
+      <c r="AS17">
         <v>-13.6</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>63</v>
       </c>
       <c r="AU17" t="s">
         <v>63</v>
       </c>
       <c r="AV17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW17" t="s">
         <v>64</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AX17" t="s">
         <v>65</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AY17" t="s">
         <v>148</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="AZ17" t="s">
         <v>142</v>
       </c>
+      <c r="BA17" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>94</v>
       </c>
@@ -3190,60 +3265,63 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AG18">
+        <v>200</v>
+      </c>
+      <c r="AH18">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>10</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>0.54500000000000004</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>0.30299999999999999</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>0.78800000000000003</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>0.48499999999999999</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>4.407</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>24.928999999999998</v>
       </c>
-      <c r="AO18">
+      <c r="AP18">
         <v>63.898000000000003</v>
       </c>
-      <c r="AP18">
+      <c r="AQ18">
         <v>0</v>
       </c>
-      <c r="AQ18">
+      <c r="AR18">
         <v>-4.8076923076923102</v>
       </c>
-      <c r="AR18">
+      <c r="AS18">
         <v>14.912280701754399</v>
       </c>
-      <c r="AS18">
+      <c r="AT18">
         <v>-40.898000000000003</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>63</v>
       </c>
       <c r="AU18" t="s">
         <v>63</v>
       </c>
       <c r="AV18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW18" t="s">
         <v>64</v>
       </c>
-      <c r="AW18" t="s">
+      <c r="AX18" t="s">
         <v>65</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="AY18" t="s">
         <v>146</v>
       </c>
-      <c r="AY18" t="s">
+      <c r="AZ18" t="s">
         <v>149</v>
       </c>
     </row>
